--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>982858.6213505898</v>
+        <v>956454.4025782954</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7128448.701475536</v>
+        <v>6654055.582836236</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3476108.837864221</v>
+        <v>2626870.006455272</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10432492.37306825</v>
+        <v>10820131.0520543</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,10 +673,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>337.7381183786924</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,13 +715,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>213.9146548883927</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -755,7 +755,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>156.127162662147</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>83.59830597394826</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>219.3305306010773</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>51.50374221639701</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1098,28 +1098,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>54.47555601903363</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>330.5754487741082</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,7 +1150,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>43.53636164073672</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>22.35153719005481</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>323.9918595228954</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.275240877313</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>92.26024958059011</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.18624318344742</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>133.2658462320107</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>191.828123840699</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8053112726921</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>193.7981713870603</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>220.5367941620016</v>
+        <v>114.4746605491556</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2244489913895</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>152.6049647870758</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.4371413535349</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>206.1742023667267</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>159.3243921218355</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.275240877313</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>92.26024958059013</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.18624318344743</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>133.2658462320107</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
-        <v>191.828123840699</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8053112726921</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>66.06391530585661</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.2570059982656</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>146.8105729959039</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>99.32764374521086</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>193.7981713870603</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>186.4561915987336</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2244489913895</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>132.2642937891924</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2019,10 +2019,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2064,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>192.7585411682378</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2247,13 +2247,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>17.84935903930808</v>
       </c>
       <c r="U22" t="n">
-        <v>143.9764333632479</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>120.1574885696296</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>67.6332161998253</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2727,7 +2727,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>238.9171930685448</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>165.6040273698191</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2809,7 +2809,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396201</v>
@@ -2961,10 +2961,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>128.1592673228011</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>253.5718841157917</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3198,10 +3198,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>23.15212296490312</v>
       </c>
       <c r="G34" t="n">
-        <v>71.67037196991645</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,19 +3240,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>154.626861758298</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>65.2902447287707</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3441,10 +3441,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>25.01141625626312</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>127.3165365479899</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>44.9773692587561</v>
+        <v>55.01047515465907</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3912,7 +3912,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>70.82764119510642</v>
       </c>
       <c r="E46" t="n">
-        <v>83.47425054667235</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>722.2873163082934</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C2" t="n">
-        <v>722.2873163082934</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D2" t="n">
-        <v>722.2873163082934</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E2" t="n">
-        <v>722.2873163082934</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F2" t="n">
-        <v>722.2873163082934</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2262.439015012111</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>1931.37612766854</v>
       </c>
       <c r="W2" t="n">
-        <v>1485.892406545185</v>
+        <v>1931.37612766854</v>
       </c>
       <c r="X2" t="n">
-        <v>1112.426648284105</v>
+        <v>1557.91036940746</v>
       </c>
       <c r="Y2" t="n">
-        <v>722.2873163082934</v>
+        <v>1167.771037431648</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4427,7 +4427,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4494,31 +4494,31 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>365.6939024587812</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T4" t="n">
-        <v>138.3857151273829</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U4" t="n">
         <v>53.94298182036445</v>
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1215.881273373638</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="C5" t="n">
-        <v>846.9187564332267</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D5" t="n">
-        <v>846.9187564332267</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E5" t="n">
-        <v>846.9187564332267</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>846.9187564332267</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>428.9549483314136</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4600,19 +4600,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W5" t="n">
-        <v>2366.086203674652</v>
+        <v>2391.363323619549</v>
       </c>
       <c r="X5" t="n">
-        <v>1992.620445413572</v>
+        <v>2017.897565358469</v>
       </c>
       <c r="Y5" t="n">
-        <v>1602.48111343776</v>
+        <v>1627.758233382657</v>
       </c>
     </row>
     <row r="6">
@@ -4637,7 +4637,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4658,13 +4658,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4746,25 +4746,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X7" t="n">
         <v>53.94298182036445</v>
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1595.875667274027</v>
+        <v>1216.807289433107</v>
       </c>
       <c r="C8" t="n">
-        <v>1595.875667274027</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.875667274027</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2653.172968148791</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2322.110080805221</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W8" t="n">
-        <v>1969.341425535107</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X8" t="n">
-        <v>1595.875667274027</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y8" t="n">
-        <v>1595.875667274027</v>
+        <v>1603.407129497228</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4883,43 +4883,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>76.52029211334911</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>76.52029211334911</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>76.52029211334911</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>76.52029211334911</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>76.52029211334911</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>76.52029211334911</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>76.52029211334911</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>76.52029211334911</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>76.52029211334911</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>76.52029211334911</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>76.52029211334911</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1546.944160717209</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>1177.981643776797</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1177.981643776797</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>792.1933911785532</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>381.2074863889456</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>199.5143021373488</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>468.4264940665503</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>838.9376088552594</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>1282.872051350724</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N11" t="n">
-        <v>1738.603625623768</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O11" t="n">
-        <v>2155.602766936375</v>
+        <v>3944.053400686433</v>
       </c>
       <c r="P11" t="n">
-        <v>2477.000885571628</v>
+        <v>4338.827767043611</v>
       </c>
       <c r="Q11" t="n">
-        <v>2670.18474111696</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018222</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.149091018222</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>2697.149091018222</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>2323.683332757143</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>1933.544000781331</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>931.3062050962127</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>756.8531758150857</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>607.9187661538344</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>448.681311148379</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>302.1467531752639</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>165.5050957234327</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>72.3129244299073</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>246.6565409677914</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>537.8115956207097</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>845.2309936650815</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M12" t="n">
-        <v>1223.331799318883</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1625.848453140027</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>1971.85275817634</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2230.218651003075</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2560.986726597623</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2560.986726597623</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2426.374760706703</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
-        <v>2232.608979049431</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2004.522806046712</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
-        <v>1769.370697814969</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1515.133341086767</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1307.281840881235</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1099.521542116281</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.94298182036445</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C13" t="n">
-        <v>53.94298182036445</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>53.94298182036445</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036445</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036445</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036445</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036445</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>82.88339090485943</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>260.2782098866546</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>542.8089378877605</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
-        <v>851.0870999282812</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
-        <v>1157.469712732903</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1424.447349606354</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
-        <v>1629.372157534689</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1687.816392302166</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1687.816392302166</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1492.060663628368</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1269.296225080891</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U13" t="n">
-        <v>980.1806200390836</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V13" t="n">
-        <v>725.4961318331967</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W13" t="n">
-        <v>436.0789617962361</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X13" t="n">
-        <v>208.0894108982188</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.94298182036445</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>880.5219586842497</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>880.5219586842497</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>880.5219586842497</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>880.5219586842497</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>469.5360538946421</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036445</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>199.5143021373487</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>468.42649406655</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L14" t="n">
-        <v>838.9376088552594</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M14" t="n">
-        <v>1282.872051350724</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N14" t="n">
-        <v>1738.603625623768</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O14" t="n">
-        <v>2155.602766936376</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>2477.000885571628</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>2670.18474111696</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>2488.892320950822</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>2327.958591534826</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>1996.895704191255</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>1644.127048921141</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>1270.661290660061</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>880.5219586842497</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>931.3062050962127</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>756.8531758150857</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>607.9187661538344</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>448.681311148379</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>302.146753175264</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
-        <v>165.5050957234327</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H15" t="n">
-        <v>72.31292442990731</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036445</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>246.6565409677914</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>537.8115956207102</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>845.230993665082</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
-        <v>1223.331799318883</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1625.848453140027</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>1971.85275817634</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2230.218651003075</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
-        <v>2560.986726597623</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2560.986726597623</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2426.374760706703</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
-        <v>2232.608979049431</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2004.522806046712</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
-        <v>1769.370697814969</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1515.133341086767</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1307.281840881235</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1099.521542116281</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>370.1728595922528</v>
+        <v>498.9312815832557</v>
       </c>
       <c r="C16" t="n">
-        <v>370.1728595922528</v>
+        <v>329.9950986553488</v>
       </c>
       <c r="D16" t="n">
-        <v>370.1728595922528</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E16" t="n">
-        <v>370.1728595922528</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F16" t="n">
-        <v>370.1728595922528</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G16" t="n">
-        <v>202.236489897035</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036445</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036445</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>82.8833909048594</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>260.2782098866545</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>542.8089378877603</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
-        <v>851.0870999282808</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N16" t="n">
-        <v>1157.469712732903</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1424.447349606354</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
-        <v>1629.372157534689</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1687.816392302165</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1587.485439024174</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1391.729710350376</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1203.390122876908</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U16" t="n">
-        <v>914.2745178351003</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V16" t="n">
-        <v>659.5900296292134</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W16" t="n">
-        <v>370.1728595922528</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X16" t="n">
-        <v>370.1728595922528</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="Y16" t="n">
-        <v>370.1728595922528</v>
+        <v>680.5797464134954</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001589</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J18" t="n">
         <v>189.2383039390118</v>
@@ -5600,7 +5600,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5612,22 +5612,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1104.146255802443</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C19" t="n">
-        <v>935.2100728745359</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D19" t="n">
-        <v>801.6097761177758</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E19" t="n">
-        <v>653.6966825353827</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F19" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5700,25 +5700,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V19" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="W19" t="n">
-        <v>1734.57685067423</v>
+        <v>1253.473796464095</v>
       </c>
       <c r="X19" t="n">
-        <v>1506.587299776212</v>
+        <v>1253.473796464095</v>
       </c>
       <c r="Y19" t="n">
-        <v>1285.794720632682</v>
+        <v>1058.768199324461</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001589</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
         <v>284.4401654074198</v>
@@ -5758,46 +5758,46 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O20" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5807,16 +5807,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D21" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F21" t="n">
         <v>341.4333205763708</v>
@@ -5825,10 +5825,10 @@
         <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
         <v>189.2383039390118</v>
@@ -5837,7 +5837,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320241</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5864,7 +5864,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3236.322113103654</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C22" t="n">
-        <v>3067.385930175747</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D22" t="n">
-        <v>2917.269290763412</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E22" t="n">
-        <v>2917.269290763412</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F22" t="n">
-        <v>2917.269290763412</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G22" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H22" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I22" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T22" t="n">
-        <v>4556.285106989247</v>
+        <v>1938.313810509443</v>
       </c>
       <c r="U22" t="n">
-        <v>4410.854366218289</v>
+        <v>1649.210943635087</v>
       </c>
       <c r="V22" t="n">
-        <v>4156.169878012402</v>
+        <v>1394.5264554292</v>
       </c>
       <c r="W22" t="n">
-        <v>3866.752707975442</v>
+        <v>1105.109285392239</v>
       </c>
       <c r="X22" t="n">
-        <v>3638.763157077424</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="Y22" t="n">
-        <v>3417.970577933894</v>
+        <v>877.1197344942216</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>932.5990189467736</v>
       </c>
       <c r="L23" t="n">
-        <v>1898.858917622688</v>
+        <v>1797.117834600128</v>
       </c>
       <c r="M23" t="n">
-        <v>2432.390822294613</v>
+        <v>2330.649739272053</v>
       </c>
       <c r="N23" t="n">
-        <v>2979.169639353395</v>
+        <v>2877.428556330835</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>3757.39320666029</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
         <v>189.2383039390118</v>
@@ -6101,7 +6101,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>975.7719389238404</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="C25" t="n">
-        <v>854.4007383484569</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="D25" t="n">
-        <v>704.2840989361212</v>
+        <v>331.580251073499</v>
       </c>
       <c r="E25" t="n">
-        <v>556.371005353728</v>
+        <v>331.580251073499</v>
       </c>
       <c r="F25" t="n">
-        <v>409.4810578558177</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1674.827124689058</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1674.827124689058</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>1674.827124689058</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W25" t="n">
-        <v>1385.409954652097</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X25" t="n">
-        <v>1157.42040375408</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y25" t="n">
-        <v>1157.42040375408</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
     <row r="26">
@@ -6205,22 +6205,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839441</v>
@@ -6229,13 +6229,13 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>806.1613418786371</v>
       </c>
       <c r="L26" t="n">
-        <v>1237.706702364128</v>
+        <v>1670.680157531992</v>
       </c>
       <c r="M26" t="n">
-        <v>2216.257005193956</v>
+        <v>2649.23046036182</v>
       </c>
       <c r="N26" t="n">
         <v>3196.009277420603</v>
@@ -6259,19 +6259,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>540.4807149410336</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C28" t="n">
-        <v>540.4807149410336</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D28" t="n">
-        <v>390.3640755286979</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E28" t="n">
-        <v>242.4509819463048</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G28" t="n">
         <v>95.56103444839441</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U28" t="n">
-        <v>1715.012968055669</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="V28" t="n">
-        <v>1460.328479849782</v>
+        <v>1507.550329366009</v>
       </c>
       <c r="W28" t="n">
-        <v>1170.911309812821</v>
+        <v>1507.550329366009</v>
       </c>
       <c r="X28" t="n">
-        <v>942.9217589148035</v>
+        <v>1279.560778467991</v>
       </c>
       <c r="Y28" t="n">
-        <v>722.1291797712734</v>
+        <v>1058.768199324461</v>
       </c>
     </row>
     <row r="29">
@@ -6442,19 +6442,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6466,16 +6466,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1803.682313196074</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M29" t="n">
-        <v>2782.232616025903</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N29" t="n">
-        <v>3573.001456870722</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O29" t="n">
         <v>4075.973927750058</v>
@@ -6490,19 +6490,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
         <v>3150.95552873011</v>
@@ -6518,43 +6518,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
@@ -6563,7 +6563,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6572,16 +6572,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
         <v>1346.568408282342</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>691.980755747597</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C31" t="n">
-        <v>523.0445728196901</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D31" t="n">
-        <v>372.9279334073543</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E31" t="n">
-        <v>225.0148398249612</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G31" t="n">
         <v>95.56103444839442</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1866.513008862232</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1866.513008862232</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V31" t="n">
-        <v>1611.828520656345</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="W31" t="n">
-        <v>1322.411350619384</v>
+        <v>1286.757750222479</v>
       </c>
       <c r="X31" t="n">
-        <v>1094.421799721367</v>
+        <v>1058.768199324461</v>
       </c>
       <c r="Y31" t="n">
-        <v>873.6292205778367</v>
+        <v>1058.768199324461</v>
       </c>
     </row>
     <row r="32">
@@ -6679,22 +6679,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6703,49 +6703,49 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>721.6132334414672</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1172.647446689876</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2151.197749519704</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>3130.950021746351</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
-        <v>4010.914672075806</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973185</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161915</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549404</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494848</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763699</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390116</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320238</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V33" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.56840828234</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>781.8112129900683</v>
+        <v>753.6157697891426</v>
       </c>
       <c r="C34" t="n">
-        <v>612.8750300621614</v>
+        <v>584.6795868612357</v>
       </c>
       <c r="D34" t="n">
-        <v>462.7583906498256</v>
+        <v>434.5629474489</v>
       </c>
       <c r="E34" t="n">
-        <v>314.8452970674325</v>
+        <v>286.6498538665069</v>
       </c>
       <c r="F34" t="n">
-        <v>167.9553495695222</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G34" t="n">
         <v>95.56103444839442</v>
@@ -6861,7 +6861,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6873,37 +6873,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T34" t="n">
-        <v>1956.343466104703</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U34" t="n">
-        <v>1956.343466104703</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V34" t="n">
-        <v>1701.658977898816</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="W34" t="n">
-        <v>1412.241807861855</v>
+        <v>1156.056813762912</v>
       </c>
       <c r="X34" t="n">
-        <v>1184.252256963838</v>
+        <v>1156.056813762912</v>
       </c>
       <c r="Y34" t="n">
-        <v>963.459677820308</v>
+        <v>935.2642346193824</v>
       </c>
     </row>
     <row r="35">
@@ -6916,25 +6916,25 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
         <v>284.4401654074198</v>
@@ -6943,25 +6943,25 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N35" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O35" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S35" t="n">
         <v>4667.761053946815</v>
@@ -6970,19 +6970,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C36" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D36" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F36" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>2298.517587917026</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I36" t="n">
-        <v>2279.510296318564</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1036.495701195956</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C37" t="n">
-        <v>867.5595182680493</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D37" t="n">
-        <v>801.6097761177758</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E37" t="n">
-        <v>653.6966825353827</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F37" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G37" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7119,28 +7119,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S37" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T37" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U37" t="n">
-        <v>1956.343466104704</v>
+        <v>1577.410141987875</v>
       </c>
       <c r="V37" t="n">
-        <v>1956.343466104704</v>
+        <v>1322.725653781988</v>
       </c>
       <c r="W37" t="n">
-        <v>1666.926296067743</v>
+        <v>1033.308483745028</v>
       </c>
       <c r="X37" t="n">
-        <v>1438.936745169726</v>
+        <v>1033.308483745028</v>
       </c>
       <c r="Y37" t="n">
-        <v>1218.144166026196</v>
+        <v>1033.308483745028</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D39" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F39" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7286,7 +7286,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3213.57468955838</v>
+        <v>270.9417306852383</v>
       </c>
       <c r="C40" t="n">
-        <v>3213.57468955838</v>
+        <v>245.6776738607301</v>
       </c>
       <c r="D40" t="n">
-        <v>3213.57468955838</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E40" t="n">
-        <v>3213.57468955838</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F40" t="n">
-        <v>3084.972127388693</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G40" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H40" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I40" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J40" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M40" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N40" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>4496.535381004075</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T40" t="n">
-        <v>4274.768765573601</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U40" t="n">
-        <v>3985.665898699244</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V40" t="n">
-        <v>3730.981410493358</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W40" t="n">
-        <v>3441.564240456397</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X40" t="n">
-        <v>3213.57468955838</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y40" t="n">
-        <v>3213.57468955838</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839441</v>
@@ -7414,25 +7414,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M41" t="n">
-        <v>2461.32865758045</v>
+        <v>2055.398642844494</v>
       </c>
       <c r="N41" t="n">
-        <v>3441.080929807096</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R41" t="n">
         <v>4778.05172241972</v>
@@ -7444,19 +7444,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>435.7957616486535</v>
+        <v>613.6330486738366</v>
       </c>
       <c r="C43" t="n">
-        <v>435.7957616486535</v>
+        <v>613.6330486738366</v>
       </c>
       <c r="D43" t="n">
-        <v>390.3640755286979</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E43" t="n">
-        <v>242.4509819463048</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G43" t="n">
         <v>95.56103444839441</v>
@@ -7596,25 +7596,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S43" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T43" t="n">
-        <v>1644.746393431758</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U43" t="n">
-        <v>1355.643526557401</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V43" t="n">
-        <v>1355.643526557401</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="W43" t="n">
-        <v>1066.226356520441</v>
+        <v>841.6225995718539</v>
       </c>
       <c r="X43" t="n">
-        <v>838.2368056224234</v>
+        <v>613.6330486738366</v>
       </c>
       <c r="Y43" t="n">
-        <v>617.4442264788933</v>
+        <v>613.6330486738366</v>
       </c>
     </row>
     <row r="44">
@@ -7636,10 +7636,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7651,25 +7651,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L44" t="n">
-        <v>1172.647446689874</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M44" t="n">
-        <v>2151.197749519703</v>
+        <v>2782.232616025903</v>
       </c>
       <c r="N44" t="n">
-        <v>3130.95002174635</v>
+        <v>3573.001456870721</v>
       </c>
       <c r="O44" t="n">
-        <v>4010.914672075804</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4405.689038432983</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R44" t="n">
         <v>4778.05172241972</v>
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468568</v>
@@ -7727,19 +7727,19 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320249</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7748,7 +7748,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7757,22 +7757,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3320.639537898272</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="C46" t="n">
-        <v>3151.703354970365</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="D46" t="n">
-        <v>3001.586715558029</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E46" t="n">
-        <v>2917.269290763411</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F46" t="n">
-        <v>2917.269290763411</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G46" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M46" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N46" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P46" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>4778.05172241972</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
-        <v>4556.285106989246</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>4267.182240114889</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V46" t="n">
-        <v>4012.497751909003</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W46" t="n">
-        <v>3723.080581872042</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X46" t="n">
-        <v>3723.080581872042</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y46" t="n">
-        <v>3502.288002728512</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
   </sheetData>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8695,13 +8695,13 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -8710,10 +8710,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>67.53663776704306</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>97.9561905389088</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>17.26494649393206</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,19 +8929,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>258.621178561693</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>97.9561905389096</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>17.26494649393209</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476838</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9415,7 +9415,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>317.5146261106135</v>
       </c>
       <c r="L23" t="n">
-        <v>344.7025836476838</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9652,16 +9652,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9877,16 +9877,16 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>189.7998007892634</v>
       </c>
       <c r="L26" t="n">
-        <v>170.1140909277297</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -10114,19 +10114,19 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>246.454569480845</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10351,10 +10351,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>104.3976710547485</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10363,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10591,7 +10591,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10600,7 +10600,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476838</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11062,28 +11062,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>132.9990175570114</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11299,19 +11299,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>104.3976710547468</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>246.454569480844</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22561,10 +22561,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>76.04605164210255</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -22594,7 +22594,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -22603,13 +22603,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>37.30951261989662</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22728,7 +22728,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22752,16 +22752,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>56.01837628787186</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>202.6835682680295</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22786,25 +22786,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>104.5922421632798</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -22840,13 +22840,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>297.737226501016</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22962,10 +22962,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,28 +22986,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>231.8063182229441</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>131.0703856053968</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23020,16 +23020,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>34.69744299689933</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -23038,7 +23038,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -23068,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>207.6878058675526</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23196,13 +23196,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>133.8193516517403</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,13 +23223,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -23238,10 +23238,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>87.44528183063954</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>299.8862654257798</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>61.44749355031652</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>120.9327970537822</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>206.1742023667267</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0364052149085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.2570059982656</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>146.8105729959039</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>103.3051669679944</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>99.32764374521085</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>105.0742887270136</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>65.97968856501902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>299.8862654257798</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>61.44749355031655</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>120.9327970537822</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>91.71201309307298</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>82.55155771235574</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>103.3051669679944</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>34.08060256326795</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>16.35117922901992</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>25.82611218385699</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,13 +24135,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24180,10 +24180,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>201.6995902368611</v>
       </c>
       <c r="U22" t="n">
-        <v>142.2354048423649</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>47.08933252899823</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>77.78783182310595</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>47.29464513706804</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>86.53361595400895</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24849,10 +24849,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>17.26178070013015</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>32.9511142207993</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25086,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>122.2689250580281</v>
       </c>
       <c r="G34" t="n">
-        <v>94.35543628911178</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>25.20511842363933</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>83.32522828944165</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -25368,19 +25368,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>142.2354048423647</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>18.10451147494139</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>103.6381037594563</v>
+        <v>93.60499786355328</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25836,16 +25836,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>77.78783182310593</v>
       </c>
       <c r="E46" t="n">
-        <v>62.95971209989682</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26073,7 +26073,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>761571.351750417</v>
+        <v>761571.3517504171</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>761571.3517504171</v>
+        <v>761571.351750417</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>771381.7646861495</v>
+        <v>993677.0719405208</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>771381.7646861494</v>
+        <v>993677.0719405209</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>993677.0719405209</v>
+        <v>993677.0719405208</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>993677.0719405208</v>
+        <v>993677.0719405209</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>993677.0719405208</v>
+        <v>993677.0719405209</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>993677.0719405208</v>
+        <v>993677.0719405209</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>993677.0719405209</v>
+        <v>993677.0719405208</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>993677.0719405209</v>
+        <v>993677.0719405208</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>993677.0719405208</v>
+        <v>993677.0719405209</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>303610.2405165455</v>
+        <v>303610.2405165453</v>
       </c>
       <c r="C2" t="n">
-        <v>303610.2405165453</v>
+        <v>303610.2405165454</v>
       </c>
       <c r="D2" t="n">
-        <v>303610.2405165453</v>
+        <v>303610.2405165454</v>
       </c>
       <c r="E2" t="n">
-        <v>327765.7989333927</v>
+        <v>416935.8762313325</v>
       </c>
       <c r="F2" t="n">
-        <v>327765.7989333927</v>
+        <v>416935.8762313323</v>
       </c>
       <c r="G2" t="n">
-        <v>416935.8762313325</v>
+        <v>416935.8762313323</v>
       </c>
       <c r="H2" t="n">
-        <v>416935.8762313324</v>
+        <v>416935.8762313323</v>
       </c>
       <c r="I2" t="n">
         <v>416935.8762313324</v>
       </c>
       <c r="J2" t="n">
+        <v>416935.8762313324</v>
+      </c>
+      <c r="K2" t="n">
         <v>416935.8762313323</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>416935.8762313323</v>
+      </c>
+      <c r="M2" t="n">
         <v>416935.8762313324</v>
       </c>
-      <c r="L2" t="n">
-        <v>416935.8762313321</v>
-      </c>
-      <c r="M2" t="n">
-        <v>416935.8762313323</v>
-      </c>
       <c r="N2" t="n">
-        <v>416935.8762313323</v>
+        <v>416935.8762313324</v>
       </c>
       <c r="O2" t="n">
-        <v>416935.8762313324</v>
+        <v>416935.8762313325</v>
       </c>
       <c r="P2" t="n">
         <v>416935.8762313324</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>469045.4557502365</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>242267.3897762176</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.599055394763127e-10</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>125192.8247873505</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>53660.56571087037</v>
       </c>
       <c r="E4" t="n">
-        <v>7134.159330842212</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="F4" t="n">
-        <v>7134.159330842215</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="G4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="I4" t="n">
         <v>21619.60799709187</v>
@@ -26450,16 +26450,16 @@
         <v>21619.60799709188</v>
       </c>
       <c r="M4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="N4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="O4" t="n">
+        <v>21619.60799709186</v>
+      </c>
+      <c r="P4" t="n">
         <v>21619.60799709187</v>
-      </c>
-      <c r="P4" t="n">
-        <v>21619.60799709186</v>
       </c>
     </row>
     <row r="5">
@@ -26478,19 +26478,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>61958.82776879413</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>61958.82776879413</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
@@ -26499,13 +26499,13 @@
         <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="M5" t="n">
         <v>96383.51825371364</v>
       </c>
-      <c r="M5" t="n">
-        <v>96383.51825371366</v>
-      </c>
       <c r="N5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
         <v>96383.51825371364</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-422877.2824722789</v>
+        <v>-428945.6962180981</v>
       </c>
       <c r="C6" t="n">
-        <v>167090.5967422654</v>
+        <v>161022.1829964463</v>
       </c>
       <c r="D6" t="n">
-        <v>167090.5967422655</v>
+        <v>161022.1829964464</v>
       </c>
       <c r="E6" t="n">
-        <v>-210372.6439164801</v>
+        <v>-429116.6189151378</v>
       </c>
       <c r="F6" t="n">
-        <v>258672.8118337565</v>
+        <v>298260.7950782688</v>
       </c>
       <c r="G6" t="n">
-        <v>56665.36020430936</v>
+        <v>298260.7950782689</v>
       </c>
       <c r="H6" t="n">
-        <v>298932.7499805269</v>
+        <v>298260.7950782689</v>
       </c>
       <c r="I6" t="n">
-        <v>298932.7499805268</v>
+        <v>298260.7950782689</v>
       </c>
       <c r="J6" t="n">
-        <v>122509.5307879339</v>
+        <v>121837.575885676</v>
       </c>
       <c r="K6" t="n">
-        <v>298932.7499805269</v>
+        <v>298260.7950782688</v>
       </c>
       <c r="L6" t="n">
-        <v>298932.7499805267</v>
+        <v>298260.7950782687</v>
       </c>
       <c r="M6" t="n">
-        <v>298932.7499805266</v>
+        <v>168618.4802393243</v>
       </c>
       <c r="N6" t="n">
-        <v>298932.7499805267</v>
+        <v>298260.795078269</v>
       </c>
       <c r="O6" t="n">
-        <v>173739.9251931765</v>
+        <v>298260.7950782691</v>
       </c>
       <c r="P6" t="n">
-        <v>298932.749980527</v>
+        <v>298260.7950782689</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>961.5670451980345</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>961.5670451980343</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26798,10 +26798,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545556</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545556</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="G4" t="n">
         <v>1194.51293060493</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>583.8233809809478</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128.209655395264</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>520.2256578503747</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>520.2256578503744</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>520.2256578503747</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.865596161600136</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>39.5885366899874</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>149.0283960200894</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>328.0876422206098</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>491.7183277411437</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>610.020066271714</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>678.7648620105704</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>689.7479871047168</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>651.3094652728054</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>555.877560033302</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>417.440897495997</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>242.8222548861147</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>88.08727253246319</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>16.9216471974046</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3092476929280108</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.068276285897659</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>19.97519465590634</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>71.21038966796766</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>195.4067520812346</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>333.9812632363777</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>449.0790242691387</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>524.0540396329287</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>537.9241906905495</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>492.0955424609224</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>394.9500567342644</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>264.0136536173924</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>128.4145574700319</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>38.41732487182711</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>8.33660485412258</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1360708082827408</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.733973360193177</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>15.41659951153571</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>52.14530795926392</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
-        <v>122.5919165656576</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>201.45617766608</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>257.7945484781747</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>271.8082059073722</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>265.345214292107</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>245.0892527662139</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>209.7161962182729</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>145.1966238249032</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>77.96574763195864</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>30.21842664991199</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>7.408795266279935</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09458036510144611</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.865596161600135</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>39.58853668998739</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>149.0283960200894</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>328.0876422206098</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>491.7183277411436</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>610.0200662717139</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>678.7648620105701</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>689.7479871047167</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>651.3094652728053</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>555.8775600333018</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>417.4408974959969</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>242.8222548861147</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>88.08727253246316</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>16.9216471974046</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3092476929280107</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.068276285897659</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>19.97519465590634</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>71.21038966796765</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>195.4067520812345</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>333.9812632363776</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>449.0790242691386</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>524.0540396329286</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>537.9241906905494</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>492.0955424609223</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>394.9500567342644</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>264.0136536173924</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>128.4145574700319</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>38.4173248718271</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>8.336604854122577</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1360708082827408</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.733973360193176</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>15.41659951153571</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>52.1453079592639</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
-        <v>122.5919165656576</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>201.4561776660799</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>257.7945484781746</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>271.8082059073722</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>265.3452142921069</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>245.0892527662138</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>209.7161962182728</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>145.1966238249032</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>77.96574763195862</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>30.21842664991198</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>7.408795266279934</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0945803651014461</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,19 +35260,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>147.0417376939236</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>271.6284766961631</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>374.2536513017267</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>448.4186287832977</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>460.3349235081259</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>421.2112538511186</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>324.6445642780324</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>195.1352076215475</v>
+        <v>318.3309425707625</v>
       </c>
       <c r="R11" t="n">
-        <v>27.23671707198261</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>194.6601607549767</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>294.0960148009275</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>310.5246444892645</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>381.9200057109104</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>406.5824786072162</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>349.499298016478</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>260.9756493199342</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>334.10916726722</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>29.23273644898482</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>179.1866858401971</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>285.3845737384909</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>311.3920828692128</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>309.4773866713356</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>269.6743806802535</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>206.9947554831664</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>59.03458057320883</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>147.0417376939235</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>271.628476696163</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>374.2536513017266</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>448.4186287832974</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>460.3349235081258</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>421.2112538511185</v>
+        <v>766.6741794499121</v>
       </c>
       <c r="P14" t="n">
-        <v>324.6445642780323</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>195.1352076215474</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>27.23671707198255</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>194.6601607549767</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>294.0960148009282</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>310.5246444892645</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>381.9200057109103</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>406.5824786072161</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>349.4992980164779</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>260.9756493199341</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>334.10916726722</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>29.2327364489848</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>179.186685840197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>285.3845737384908</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>311.3920828692127</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>309.4773866713355</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>269.6743806802535</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>206.9947554831663</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>59.0345805732088</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359029</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36126,7 +36126,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M20" t="n">
         <v>988.4346493230593</v>
@@ -36135,7 +36135,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
@@ -36357,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>654.705912666014</v>
       </c>
       <c r="L23" t="n">
-        <v>800.2926980400159</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302268</v>
@@ -36372,16 +36372,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36597,16 +36597,16 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>526.9910873446639</v>
       </c>
       <c r="L26" t="n">
-        <v>625.7042053200619</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
         <v>888.8531821509645</v>
@@ -36834,19 +36834,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M29" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>798.7564048937564</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>441.5889576101488</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509644</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,7 +37311,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
         <v>988.4346493230593</v>
@@ -37320,7 +37320,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193719</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359029</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>588.5891319493436</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38019,19 +38019,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>559.987785447079</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>798.7564048937555</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193719</v>
@@ -38040,7 +38040,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>956454.4025782954</v>
+        <v>978120.5831006526</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836236</v>
+        <v>7128448.701475535</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2626870.006455272</v>
+        <v>3476108.837864221</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10820131.0520543</v>
+        <v>10432492.37306825</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>213.9146548883927</v>
+        <v>124.0800308968882</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>27.37086888118502</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>156.127162662147</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>310.0783926627924</v>
       </c>
       <c r="W5" t="n">
-        <v>51.50374221639701</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>223.1498336210773</v>
       </c>
       <c r="X7" t="n">
-        <v>94.63926978364032</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>330.5754487741082</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.2255273839243</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>411.4371413535349</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>61.44749355031655</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881769</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>251.0364052149085</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>84.56959275870776</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>135.275240877313</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>92.26024958059013</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.18624318344743</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>133.2658462320107</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>191.828123840699</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8053112726921</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>135.3583393660532</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>146.8105729959039</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>114.4746605491556</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1618,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>122.1866450646173</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>61.44749355031655</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>251.0364052149085</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.9994691657081</v>
+        <v>135.275240877313</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>92.26024958059013</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.18624318344743</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>133.2658462320107</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7165703189231</v>
+        <v>191.828123840699</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8053112726921</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>66.06391530585661</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>166.2570059982656</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>146.8105729959039</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>184.5325710662231</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2244489913895</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292547</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2013,10 +2013,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>27.32239466140648</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>192.7585411682378</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292547</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2256,10 +2256,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>17.84935903930808</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>87.83762944231115</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>67.6332161998253</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>86.04463973827801</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>165.6040273698191</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>175.8054861882838</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2809,7 +2809,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396201</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3009,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>21.71281753064687</v>
       </c>
       <c r="W31" t="n">
-        <v>253.5718841157917</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>23.15212296490312</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -3243,19 +3243,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>53.2957408050268</v>
       </c>
     </row>
     <row r="35">
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>154.626861758298</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3438,7 +3438,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>30.51681965668757</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>165.4668884434681</v>
       </c>
       <c r="C40" t="n">
-        <v>25.01141625626312</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>53.78998909690353</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>55.01047515465907</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>50.7948578234427</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>70.82764119510642</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4197,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>781.1711973675267</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C2" t="n">
-        <v>412.2086804271149</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D2" t="n">
-        <v>53.94298182036445</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>53.94298182036445</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4363,19 +4363,19 @@
         <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2262.439015012111</v>
+        <v>2353.181059447974</v>
       </c>
       <c r="V2" t="n">
-        <v>1931.37612766854</v>
+        <v>2353.181059447974</v>
       </c>
       <c r="W2" t="n">
-        <v>1931.37612766854</v>
+        <v>2000.41240417786</v>
       </c>
       <c r="X2" t="n">
-        <v>1557.91036940746</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="Y2" t="n">
-        <v>1167.771037431648</v>
+        <v>1626.94664591678</v>
       </c>
     </row>
     <row r="3">
@@ -4403,31 +4403,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>217.9192350259435</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4515,25 +4515,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>570.4247794971948</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>217.9192350259435</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1241.158393318536</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C5" t="n">
-        <v>1241.158393318536</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2443.387305656314</v>
+        <v>2152.732416223701</v>
       </c>
       <c r="W5" t="n">
-        <v>2391.363323619549</v>
+        <v>1799.963760953587</v>
       </c>
       <c r="X5" t="n">
-        <v>2017.897565358469</v>
+        <v>1426.498002692507</v>
       </c>
       <c r="Y5" t="n">
-        <v>1627.758233382657</v>
+        <v>1036.358670716696</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,16 +4646,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4731,43 +4731,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>149.5382038240415</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
         <v>53.94298182036445</v>
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1216.807289433107</v>
+        <v>1371.274936282423</v>
       </c>
       <c r="C8" t="n">
-        <v>882.8926947117852</v>
+        <v>1002.312419342012</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>1002.312419342012</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>1002.312419342012</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>591.3265145524042</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>173.3627064505911</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>173.3627064505911</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,10 +4807,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4834,22 +4834,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>1993.54646147304</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W8" t="n">
-        <v>1993.54646147304</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="X8" t="n">
-        <v>1993.54646147304</v>
+        <v>1761.414268258235</v>
       </c>
       <c r="Y8" t="n">
-        <v>1603.407129497228</v>
+        <v>1371.274936282423</v>
       </c>
     </row>
     <row r="9">
@@ -4892,7 +4892,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4968,34 +4968,34 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610022</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V10" t="n">
         <v>343.360151857325</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>1300.85583259435</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>1300.85583259435</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>942.5901339875998</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>942.5901339875998</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>531.6042291979923</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>116.0111571237145</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>116.0111571237145</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>199.5143021373487</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>468.4264940665503</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>838.9376088552594</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>1282.872051350724</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807096</v>
+        <v>1738.603625623768</v>
       </c>
       <c r="O11" t="n">
-        <v>3944.053400686433</v>
+        <v>2155.602766936376</v>
       </c>
       <c r="P11" t="n">
-        <v>4338.827767043611</v>
+        <v>2477.000885571628</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>2670.18474111696</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>2443.576964538517</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>2112.514077194946</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>1759.745421924832</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>1386.279663663752</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>1300.85583259435</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>931.3062050962127</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>756.8531758150857</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>607.9187661538344</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>448.681311148379</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>302.146753175264</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>165.5050957234327</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>72.31292442990731</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>246.6565409677914</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>440.8349669871898</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320243</v>
+        <v>748.2543650315615</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.47698845434</v>
+        <v>1126.355170685363</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1528.871824506507</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>1874.87612954282</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2230.218651003075</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2426.374760706703</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2232.608979049431</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2004.522806046712</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216076</v>
+        <v>1769.370697814969</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1515.133341086767</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1307.281840881235</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1099.521542116281</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.56103444839442</v>
+        <v>802.7013092244911</v>
       </c>
       <c r="C13" t="n">
-        <v>95.56103444839442</v>
+        <v>633.7651262965842</v>
       </c>
       <c r="D13" t="n">
-        <v>95.56103444839442</v>
+        <v>633.7651262965842</v>
       </c>
       <c r="E13" t="n">
-        <v>95.56103444839442</v>
+        <v>485.8520327141911</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839442</v>
+        <v>338.9620852162807</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>202.236489897035</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>140.68366689533</v>
+        <v>82.8833909048594</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>260.2782098866545</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>542.8089378877603</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892251</v>
+        <v>851.0870999282808</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598116</v>
+        <v>1157.469712732903</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1424.447349606354</v>
       </c>
       <c r="P13" t="n">
-        <v>1878.733169952189</v>
+        <v>1629.372157534689</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="T13" t="n">
-        <v>1559.196154437386</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="U13" t="n">
-        <v>1270.093287563029</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="V13" t="n">
-        <v>1015.408799357142</v>
+        <v>1433.131904096278</v>
       </c>
       <c r="W13" t="n">
-        <v>725.9916293201816</v>
+        <v>1433.131904096278</v>
       </c>
       <c r="X13" t="n">
-        <v>498.0020784221642</v>
+        <v>1205.142353198261</v>
       </c>
       <c r="Y13" t="n">
-        <v>277.2094992786341</v>
+        <v>984.3497740547308</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>1352.448478869744</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>983.4859619293327</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143015</v>
+        <v>625.2202633225822</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544771</v>
+        <v>239.432010724338</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551626</v>
+        <v>239.432010724338</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>116.0111571237145</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>116.0111571237145</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>199.5143021373485</v>
       </c>
       <c r="K14" t="n">
-        <v>939.1634975427194</v>
+        <v>468.4264940665499</v>
       </c>
       <c r="L14" t="n">
-        <v>1803.682313196074</v>
+        <v>838.9376088552592</v>
       </c>
       <c r="M14" t="n">
-        <v>2337.214217867999</v>
+        <v>1282.872051350724</v>
       </c>
       <c r="N14" t="n">
-        <v>3316.966490094645</v>
+        <v>1738.603625623768</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>2155.602766936376</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>2477.000885571628</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>2670.18474111696</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419721</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>2443.576964538517</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>2112.514077194946</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>2112.514077194946</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>1739.048318933866</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>1739.048318933866</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>931.3062050962127</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>756.8531758150857</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>607.9187661538344</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>448.681311148379</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>302.146753175264</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089888</v>
+        <v>165.5050957234327</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468563</v>
+        <v>72.31292442990731</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>246.6565409677914</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>537.8115956207102</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>845.230993665082</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.47698845434</v>
+        <v>1223.331799318883</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1625.848453140027</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>1971.85275817634</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2230.218651003075</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2426.374760706703</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313403</v>
+        <v>2232.608979049431</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2004.522806046712</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216076</v>
+        <v>1769.370697814969</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487874</v>
+        <v>1515.133341086767</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1307.281840881235</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1099.521542116281</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>498.9312815832557</v>
+        <v>668.2025925869817</v>
       </c>
       <c r="C16" t="n">
-        <v>329.9950986553488</v>
+        <v>668.2025925869817</v>
       </c>
       <c r="D16" t="n">
-        <v>263.2638710736754</v>
+        <v>518.085953174646</v>
       </c>
       <c r="E16" t="n">
-        <v>263.2638710736754</v>
+        <v>370.1728595922528</v>
       </c>
       <c r="F16" t="n">
-        <v>263.2638710736754</v>
+        <v>370.1728595922528</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>202.236489897035</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>140.68366689533</v>
+        <v>82.8833909048594</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>260.2782098866545</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>542.8089378877603</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892251</v>
+        <v>851.0870999282808</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598116</v>
+        <v>1157.469712732903</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1424.447349606354</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952189</v>
+        <v>1629.372157534689</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104704</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="T16" t="n">
-        <v>1734.57685067423</v>
+        <v>1501.419855871637</v>
       </c>
       <c r="U16" t="n">
-        <v>1445.473983799873</v>
+        <v>1212.304250829829</v>
       </c>
       <c r="V16" t="n">
-        <v>1190.789495593986</v>
+        <v>957.6197626239423</v>
       </c>
       <c r="W16" t="n">
-        <v>901.3723255570255</v>
+        <v>668.2025925869817</v>
       </c>
       <c r="X16" t="n">
-        <v>901.3723255570255</v>
+        <v>668.2025925869817</v>
       </c>
       <c r="Y16" t="n">
-        <v>680.5797464134954</v>
+        <v>668.2025925869817</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839441</v>
@@ -5521,22 +5521,22 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.32865758045</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R17" t="n">
         <v>4778.05172241972</v>
@@ -5551,16 +5551,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C18" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839441</v>
@@ -5600,7 +5600,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5612,16 +5612,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>877.1197344942216</v>
+        <v>562.5269503710301</v>
       </c>
       <c r="C19" t="n">
-        <v>708.1835515663147</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D19" t="n">
-        <v>558.0669121539789</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E19" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839441</v>
@@ -5703,22 +5703,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1737.059203485665</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.890966501056</v>
+        <v>1737.059203485665</v>
       </c>
       <c r="V19" t="n">
-        <v>1542.890966501056</v>
+        <v>1482.374715279778</v>
       </c>
       <c r="W19" t="n">
-        <v>1253.473796464095</v>
+        <v>1192.957545242817</v>
       </c>
       <c r="X19" t="n">
-        <v>1253.473796464095</v>
+        <v>964.9679943448</v>
       </c>
       <c r="Y19" t="n">
-        <v>1058.768199324461</v>
+        <v>744.1754152012699</v>
       </c>
     </row>
     <row r="20">
@@ -5734,19 +5734,19 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839441</v>
@@ -5758,13 +5758,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2216.257005193956</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>3196.009277420603</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O20" t="n">
         <v>4075.973927750058</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>877.1197344942216</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C22" t="n">
-        <v>708.1835515663147</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D22" t="n">
-        <v>558.0669121539789</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E22" t="n">
-        <v>410.1538185715858</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F22" t="n">
-        <v>263.2638710736754</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839441</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T22" t="n">
-        <v>1938.313810509443</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U22" t="n">
-        <v>1649.210943635087</v>
+        <v>1777.788130637675</v>
       </c>
       <c r="V22" t="n">
-        <v>1394.5264554292</v>
+        <v>1523.103642431788</v>
       </c>
       <c r="W22" t="n">
-        <v>1105.109285392239</v>
+        <v>1523.103642431788</v>
       </c>
       <c r="X22" t="n">
-        <v>877.1197344942216</v>
+        <v>1523.103642431788</v>
       </c>
       <c r="Y22" t="n">
-        <v>877.1197344942216</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>932.5990189467736</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L23" t="n">
-        <v>1797.117834600128</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M23" t="n">
-        <v>2330.649739272053</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N23" t="n">
-        <v>2877.428556330835</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O23" t="n">
-        <v>3757.39320666029</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6044,43 +6044,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
         <v>2125.96131142685</v>
@@ -6101,7 +6101,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>481.6968904858347</v>
+        <v>825.859557377715</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6968904858347</v>
+        <v>656.9233744498081</v>
       </c>
       <c r="D25" t="n">
-        <v>331.580251073499</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E25" t="n">
-        <v>331.580251073499</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F25" t="n">
-        <v>263.2638710736754</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839441</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.788099626699</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="V25" t="n">
-        <v>999.1036114208126</v>
+        <v>1611.828520656345</v>
       </c>
       <c r="W25" t="n">
-        <v>709.6864413838521</v>
+        <v>1322.411350619384</v>
       </c>
       <c r="X25" t="n">
-        <v>481.6968904858347</v>
+        <v>1094.421799721367</v>
       </c>
       <c r="Y25" t="n">
-        <v>481.6968904858347</v>
+        <v>1007.508022207955</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
         <v>1646.988141143014</v>
@@ -6214,64 +6214,64 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>806.1613418786371</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1670.680157531992</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2649.23046036182</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>3196.009277420603</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
@@ -6338,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>877.1197344942216</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C28" t="n">
-        <v>708.1835515663147</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D28" t="n">
-        <v>558.0669121539789</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E28" t="n">
-        <v>410.1538185715858</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F28" t="n">
-        <v>263.2638710736754</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T28" t="n">
-        <v>1674.827124689058</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U28" t="n">
-        <v>1674.827124689058</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V28" t="n">
-        <v>1507.550329366009</v>
+        <v>1479.892362468343</v>
       </c>
       <c r="W28" t="n">
-        <v>1507.550329366009</v>
+        <v>1302.311063288258</v>
       </c>
       <c r="X28" t="n">
-        <v>1279.560778467991</v>
+        <v>1302.311063288258</v>
       </c>
       <c r="Y28" t="n">
-        <v>1058.768199324461</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
     <row r="29">
@@ -6442,19 +6442,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6469,13 +6469,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
         <v>4075.973927750058</v>
@@ -6490,19 +6490,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
         <v>3150.95552873011</v>
@@ -6518,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>877.1197344942216</v>
+        <v>974.4454116758762</v>
       </c>
       <c r="C31" t="n">
-        <v>708.1835515663147</v>
+        <v>805.5092287479694</v>
       </c>
       <c r="D31" t="n">
-        <v>558.0669121539789</v>
+        <v>655.3925893356336</v>
       </c>
       <c r="E31" t="n">
-        <v>410.1538185715858</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736754</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6648,25 +6648,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V31" t="n">
-        <v>1542.890966501056</v>
+        <v>1712.644711754384</v>
       </c>
       <c r="W31" t="n">
-        <v>1286.757750222479</v>
+        <v>1423.227541717424</v>
       </c>
       <c r="X31" t="n">
-        <v>1058.768199324461</v>
+        <v>1195.237990819406</v>
       </c>
       <c r="Y31" t="n">
-        <v>1058.768199324461</v>
+        <v>974.4454116758762</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>753.6157697891426</v>
+        <v>727.0030950818858</v>
       </c>
       <c r="C34" t="n">
-        <v>584.6795868612357</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="D34" t="n">
-        <v>434.5629474489</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E34" t="n">
-        <v>286.6498538665069</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F34" t="n">
         <v>263.2638710736754</v>
@@ -6891,19 +6891,19 @@
         <v>1734.57685067423</v>
       </c>
       <c r="U34" t="n">
-        <v>1445.473983799873</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V34" t="n">
-        <v>1445.473983799873</v>
+        <v>1479.892362468343</v>
       </c>
       <c r="W34" t="n">
-        <v>1156.056813762912</v>
+        <v>1190.475192431382</v>
       </c>
       <c r="X34" t="n">
-        <v>1156.056813762912</v>
+        <v>962.4856415333647</v>
       </c>
       <c r="Y34" t="n">
-        <v>935.2642346193824</v>
+        <v>908.6515599121255</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
         <v>284.4401654074198</v>
@@ -6955,34 +6955,34 @@
         <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
         <v>189.2383039390118</v>
@@ -7049,7 +7049,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>877.1197344942216</v>
+        <v>590.1253288168953</v>
       </c>
       <c r="C37" t="n">
-        <v>708.1835515663147</v>
+        <v>421.1891458889884</v>
       </c>
       <c r="D37" t="n">
-        <v>558.0669121539789</v>
+        <v>421.1891458889884</v>
       </c>
       <c r="E37" t="n">
-        <v>410.1538185715858</v>
+        <v>273.2760523065953</v>
       </c>
       <c r="F37" t="n">
-        <v>263.2638710736754</v>
+        <v>126.3861048086849</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7119,28 +7119,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U37" t="n">
-        <v>1577.410141987875</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="V37" t="n">
-        <v>1322.725653781988</v>
+        <v>1509.973093725643</v>
       </c>
       <c r="W37" t="n">
-        <v>1033.308483745028</v>
+        <v>1220.555923688682</v>
       </c>
       <c r="X37" t="n">
-        <v>1033.308483745028</v>
+        <v>992.5663727906651</v>
       </c>
       <c r="Y37" t="n">
-        <v>1033.308483745028</v>
+        <v>771.773793647135</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
         <v>189.2383039390118</v>
@@ -7286,7 +7286,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>270.9417306852383</v>
+        <v>1023.336921276364</v>
       </c>
       <c r="C40" t="n">
-        <v>245.6776738607301</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D40" t="n">
-        <v>95.56103444839441</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839441</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839441</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7365,19 +7365,19 @@
         <v>1734.57685067423</v>
       </c>
       <c r="U40" t="n">
-        <v>1445.473983799873</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V40" t="n">
-        <v>1190.789495593986</v>
+        <v>1479.892362468343</v>
       </c>
       <c r="W40" t="n">
-        <v>901.3723255570255</v>
+        <v>1190.475192431382</v>
       </c>
       <c r="X40" t="n">
-        <v>673.3827746590082</v>
+        <v>1190.475192431382</v>
       </c>
       <c r="Y40" t="n">
-        <v>452.5901955154781</v>
+        <v>1190.475192431382</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839441</v>
@@ -7417,22 +7417,22 @@
         <v>939.1634975427194</v>
       </c>
       <c r="L41" t="n">
-        <v>1521.86673817257</v>
+        <v>1586.925993846823</v>
       </c>
       <c r="M41" t="n">
-        <v>2055.398642844494</v>
+        <v>2120.457898518747</v>
       </c>
       <c r="N41" t="n">
-        <v>2602.177459903276</v>
+        <v>2667.23671557753</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232731</v>
+        <v>3547.201365906984</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679677</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R41" t="n">
         <v>4778.05172241972</v>
@@ -7444,19 +7444,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="42">
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>613.6330486738366</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C43" t="n">
-        <v>613.6330486738366</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D43" t="n">
         <v>558.0669121539789</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U43" t="n">
-        <v>1385.724257814702</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V43" t="n">
-        <v>1131.039769608815</v>
+        <v>1220.870226851287</v>
       </c>
       <c r="W43" t="n">
-        <v>841.6225995718539</v>
+        <v>931.4530568143261</v>
       </c>
       <c r="X43" t="n">
-        <v>613.6330486738366</v>
+        <v>931.4530568143261</v>
       </c>
       <c r="Y43" t="n">
-        <v>613.6330486738366</v>
+        <v>931.4530568143261</v>
       </c>
     </row>
     <row r="44">
@@ -7636,10 +7636,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7648,28 +7648,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>939.1634975427194</v>
+        <v>944.3948478560242</v>
       </c>
       <c r="L44" t="n">
-        <v>1803.682313196074</v>
+        <v>1395.429061104433</v>
       </c>
       <c r="M44" t="n">
-        <v>2782.232616025903</v>
+        <v>2373.979363934262</v>
       </c>
       <c r="N44" t="n">
-        <v>3573.001456870721</v>
+        <v>2920.758180993044</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.722831322499</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R44" t="n">
         <v>4778.05172241972</v>
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468568</v>
@@ -7727,19 +7727,19 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7748,7 +7748,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7757,22 +7757,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>481.6968904858347</v>
+        <v>727.0030950818858</v>
       </c>
       <c r="C46" t="n">
-        <v>481.6968904858347</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="D46" t="n">
-        <v>410.1538185715858</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E46" t="n">
         <v>410.1538185715858</v>
@@ -7845,13 +7845,13 @@
         <v>999.1036114208126</v>
       </c>
       <c r="W46" t="n">
-        <v>709.6864413838521</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="X46" t="n">
-        <v>481.6968904858347</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="Y46" t="n">
-        <v>481.6968904858347</v>
+        <v>778.3110322772825</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627882</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8695,13 +8695,13 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -8710,10 +8710,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>67.53663776704306</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>97.9561905389096</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>17.26494649393209</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,19 +8929,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>258.621178561693</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>97.9561905389096</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>17.26494649393209</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9169,25 +9169,25 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>388.431077898089</v>
       </c>
       <c r="O17" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>170.1140909277297</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9415,7 +9415,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>317.5146261106135</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>219.3344627260153</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>189.7998007892634</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9886,10 +9886,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10117,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10126,7 +10126,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10600,7 +10600,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>133.2530576400246</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>133.2530576400246</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11065,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>132.9990175570114</v>
+        <v>198.7154374299943</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>160.3329896347523</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>246.454569480844</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22546,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -22603,19 +22603,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>37.30951261989662</v>
+        <v>127.1441366114011</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22707,7 +22707,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>139.8759522174428</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -22725,7 +22725,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -22755,25 +22755,25 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>56.01837628787186</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22804,7 +22804,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,22 +22831,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>17.67386580734251</v>
       </c>
       <c r="W5" t="n">
-        <v>297.737226501016</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22965,7 +22965,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22989,7 +22989,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -22998,19 +22998,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>63.3731647155137</v>
       </c>
       <c r="X7" t="n">
-        <v>131.0703856053968</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>34.69744299689933</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23041,7 +23041,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>33.70578886093691</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23074,19 +23074,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23199,10 +23199,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,22 +23223,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>130.3958356744437</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>157.4983735401877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>299.8862654257798</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>120.9327970537822</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>206.1742023667267</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>301.6683458973458</v>
       </c>
     </row>
     <row r="12">
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>30.89866663221238</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>103.3051669679944</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>99.32764374521086</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>193.7981713870603</v>
       </c>
       <c r="T13" t="n">
-        <v>105.0742887270136</v>
+        <v>220.5367941620016</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2244489913895</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23506,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>289.2504962889176</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>299.8862654257798</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>120.9327970537822</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>206.1742023667267</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23557,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>82.55155771235574</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>103.3051669679944</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>99.32764374521086</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>193.7981713870603</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>36.00422309577849</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23901,10 +23901,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23943,22 +23943,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>192.2265546147627</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>25.82611218385699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>201.6995902368611</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>198.3742087633017</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>77.78783182310595</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>132.5400136138168</v>
       </c>
     </row>
     <row r="26">
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>86.53361595400895</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>110.7175121483072</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,16 +24897,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>230.4248257931811</v>
       </c>
       <c r="W31" t="n">
-        <v>32.9511142207993</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>122.2689250580281</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25131,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>165.288912547068</v>
       </c>
     </row>
     <row r="35">
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>25.20511842363933</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>135.5089886023407</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>14.3650917384692</v>
       </c>
       <c r="C40" t="n">
-        <v>142.2354048423647</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>126.0419910850338</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>93.60499786355328</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>129.0371223584946</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>77.78783182310593</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>761571.3517504171</v>
+        <v>761571.351750417</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>761571.3517504171</v>
+        <v>761571.351750417</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>993677.0719405208</v>
+        <v>771381.7646861494</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>993677.0719405209</v>
+        <v>771381.7646861495</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>993677.0719405208</v>
+        <v>993677.0719405209</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>993677.0719405209</v>
+        <v>993677.0719405208</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>993677.0719405208</v>
+        <v>993677.0719405207</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>993677.0719405209</v>
+        <v>993677.0719405208</v>
       </c>
     </row>
   </sheetData>
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>303610.2405165453</v>
+        <v>303610.2405165455</v>
       </c>
       <c r="C2" t="n">
-        <v>303610.2405165454</v>
+        <v>303610.2405165455</v>
       </c>
       <c r="D2" t="n">
-        <v>303610.2405165454</v>
+        <v>303610.2405165456</v>
       </c>
       <c r="E2" t="n">
+        <v>327765.7989333926</v>
+      </c>
+      <c r="F2" t="n">
+        <v>327765.7989333927</v>
+      </c>
+      <c r="G2" t="n">
         <v>416935.8762313325</v>
       </c>
-      <c r="F2" t="n">
-        <v>416935.8762313323</v>
-      </c>
-      <c r="G2" t="n">
-        <v>416935.8762313323</v>
-      </c>
       <c r="H2" t="n">
-        <v>416935.8762313323</v>
+        <v>416935.8762313324</v>
       </c>
       <c r="I2" t="n">
         <v>416935.8762313324</v>
       </c>
       <c r="J2" t="n">
+        <v>416935.8762313323</v>
+      </c>
+      <c r="K2" t="n">
         <v>416935.8762313324</v>
       </c>
-      <c r="K2" t="n">
-        <v>416935.8762313323</v>
-      </c>
       <c r="L2" t="n">
-        <v>416935.8762313323</v>
+        <v>416935.8762313324</v>
       </c>
       <c r="M2" t="n">
         <v>416935.8762313324</v>
@@ -26352,7 +26352,7 @@
         <v>416935.8762313324</v>
       </c>
       <c r="O2" t="n">
-        <v>416935.8762313325</v>
+        <v>416935.8762313324</v>
       </c>
       <c r="P2" t="n">
         <v>416935.8762313324</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>469045.4557502363</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>242267.3897762175</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>125192.8247873504</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,22 +26426,22 @@
         <v>53660.56571087037</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709188</v>
+        <v>7134.159330842216</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709187</v>
+        <v>7134.159330842216</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="H4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="I4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="J4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="K4" t="n">
         <v>21619.60799709188</v>
@@ -26450,16 +26450,16 @@
         <v>21619.60799709188</v>
       </c>
       <c r="M4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="N4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="O4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="P4" t="n">
         <v>21619.60799709186</v>
-      </c>
-      <c r="P4" t="n">
-        <v>21619.60799709187</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>61958.82776879413</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>61958.82776879413</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371364</v>
@@ -26493,7 +26493,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371366</v>
@@ -26502,10 +26502,10 @@
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
         <v>96383.51825371364</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-428945.6962180981</v>
+        <v>-423484.1238468607</v>
       </c>
       <c r="C6" t="n">
-        <v>161022.1829964463</v>
+        <v>166483.7553676838</v>
       </c>
       <c r="D6" t="n">
-        <v>161022.1829964464</v>
+        <v>166483.7553676839</v>
       </c>
       <c r="E6" t="n">
-        <v>-429116.6189151378</v>
+        <v>-210864.4588224103</v>
       </c>
       <c r="F6" t="n">
-        <v>298260.7950782688</v>
+        <v>258180.9969278261</v>
       </c>
       <c r="G6" t="n">
-        <v>298260.7950782689</v>
+        <v>56598.16471408364</v>
       </c>
       <c r="H6" t="n">
-        <v>298260.7950782689</v>
+        <v>298865.5544903012</v>
       </c>
       <c r="I6" t="n">
-        <v>298260.7950782689</v>
+        <v>298865.5544903011</v>
       </c>
       <c r="J6" t="n">
-        <v>121837.575885676</v>
+        <v>122442.335297708</v>
       </c>
       <c r="K6" t="n">
-        <v>298260.7950782688</v>
+        <v>298865.5544903011</v>
       </c>
       <c r="L6" t="n">
-        <v>298260.7950782687</v>
+        <v>298865.5544903011</v>
       </c>
       <c r="M6" t="n">
-        <v>168618.4802393243</v>
+        <v>298865.554490301</v>
       </c>
       <c r="N6" t="n">
-        <v>298260.795078269</v>
+        <v>298865.554490301</v>
       </c>
       <c r="O6" t="n">
-        <v>298260.7950782691</v>
+        <v>173672.7297029507</v>
       </c>
       <c r="P6" t="n">
-        <v>298260.7950782689</v>
+        <v>298865.5544903011</v>
       </c>
     </row>
   </sheetData>
@@ -26740,16 +26740,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>961.5670451980343</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>961.5670451980343</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26798,10 +26798,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1194.51293060493</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>1194.51293060493</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
         <v>1194.51293060493</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>583.8233809809476</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>128.209655395264</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>520.2256578503742</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>3.865596161600135</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>39.58853668998739</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>149.0283960200894</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>328.0876422206098</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>491.7183277411436</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>610.0200662717139</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>678.7648620105701</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>689.7479871047167</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>651.3094652728053</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>555.8775600333018</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>417.4408974959969</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>242.8222548861147</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>88.08727253246316</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>16.9216471974046</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3092476929280107</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.068276285897659</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>19.97519465590634</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>71.21038966796765</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>195.4067520812345</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>333.9812632363776</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>449.0790242691386</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>524.0540396329286</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>537.9241906905494</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>492.0955424609223</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>394.9500567342644</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>264.0136536173924</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>128.4145574700319</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>38.4173248718271</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>8.336604854122577</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1360708082827408</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.733973360193176</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>15.41659951153571</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>52.1453079592639</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>122.5919165656576</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>201.4561776660799</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>257.7945484781746</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>271.8082059073722</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>265.3452142921069</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>245.0892527662138</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>209.7161962182728</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>145.1966238249032</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>77.96574763195862</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>30.21842664991198</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>7.408795266279934</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.0945803651014461</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>3.865596161600135</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>39.58853668998739</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>149.0283960200894</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>328.0876422206098</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>491.7183277411436</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>610.0200662717139</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>678.7648620105701</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>689.7479871047167</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>651.3094652728053</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>555.8775600333018</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>417.4408974959969</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>242.8222548861147</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>88.08727253246316</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>16.9216471974046</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3092476929280107</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.068276285897659</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>19.97519465590634</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>71.21038966796765</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>195.4067520812345</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>333.9812632363776</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>449.0790242691386</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>524.0540396329286</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>537.9241906905494</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>492.0955424609223</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>394.9500567342644</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>264.0136536173924</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>128.4145574700319</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>38.4173248718271</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>8.336604854122577</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1360708082827408</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.733973360193176</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>15.41659951153571</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>52.1453079592639</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>122.5919165656576</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>201.4561776660799</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>257.7945484781746</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>271.8082059073722</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>265.3452142921069</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>245.0892527662138</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>209.7161962182728</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>145.1966238249032</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>77.96574763195862</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>30.21842664991198</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>7.408795266279934</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.0945803651014461</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307148</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,16 +35260,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>147.0417376939235</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>271.628476696163</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>374.2536513017266</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>448.4186287832974</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>460.3349235081258</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>421.2112538511185</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>324.6445642780323</v>
       </c>
       <c r="Q11" t="n">
-        <v>318.3309425707625</v>
+        <v>195.1352076215474</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>27.23671707198255</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>194.6601607549767</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>196.1398242620186</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>310.5246444892645</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>381.9200057109103</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>406.5824786072161</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>349.4992980164779</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>358.9318398588437</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>334.10916726722</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>29.2327364489848</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>179.186685840197</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>285.3845737384908</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>311.3920828692127</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>309.4773866713355</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>269.6743806802535</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>206.9947554831663</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>59.0345805732088</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>147.0417376939235</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>271.628476696163</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>374.2536513017266</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>448.4186287832974</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>460.3349235081258</v>
       </c>
       <c r="O14" t="n">
-        <v>766.6741794499121</v>
+        <v>421.2112538511185</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>324.6445642780323</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>195.1352076215474</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>27.23671707198255</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>194.6601607549767</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>294.0960148009282</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>310.5246444892645</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>381.9200057109103</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>406.5824786072161</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>349.4992980164779</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>260.9756493199341</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>334.10916726722</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>29.2327364489848</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>179.186685840197</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>285.3845737384908</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>311.3920828692127</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>309.4773866713355</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>269.6743806802535</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>206.9947554831663</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>59.0345805732088</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,25 +35889,25 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>940.7329133110005</v>
       </c>
       <c r="O17" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36126,7 +36126,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7042053200619</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
         <v>988.4346493230593</v>
@@ -36135,7 +36135,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>654.705912666014</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>771.6362981389268</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>526.9910873446639</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
         <v>873.2513289427826</v>
@@ -36606,10 +36606,10 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
@@ -36837,7 +36837,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
         <v>988.4346493230593</v>
@@ -36846,7 +36846,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37320,7 +37320,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>641.3060585282437</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193719</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>641.3060585282437</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>588.5891319493436</v>
+        <v>654.3055518223265</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
@@ -37803,7 +37803,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>497.5242761901528</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>798.7564048937555</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
